--- a/説明資料.xlsx
+++ b/説明資料.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryuji/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F1FAF9-2DCA-A84C-8FE9-C79CC7338216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D54D86E-4B9E-2949-9D62-61533B8FB4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="920" windowWidth="27900" windowHeight="16400" xr2:uid="{308E994D-92C3-8E47-97A7-4D2825426C10}"/>
+    <workbookView xWindow="240" yWindow="920" windowWidth="27900" windowHeight="16400" activeTab="2" xr2:uid="{308E994D-92C3-8E47-97A7-4D2825426C10}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="使用目的＆管理内容" sheetId="3" r:id="rId1"/>
+    <sheet name="Github概要" sheetId="1" r:id="rId2"/>
+    <sheet name="アカウント準備＆コミットまで" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="249">
   <si>
     <t>1. Gitとは</t>
   </si>
@@ -414,157 +415,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 後にブラウザ上で内容を確認する</t>
-    </r>
-  </si>
-  <si>
-    <t>8. よくあるトラブルと対処法</t>
-  </si>
-  <si>
-    <t>状況</t>
-  </si>
-  <si>
-    <t>対応方法</t>
-  </si>
-  <si>
-    <t>間違ってコミットした</t>
-  </si>
-  <si>
-    <r>
-      <t>git reset --soft HEAD^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> を使用し、直前のコミットを取り消す</t>
-    </r>
-  </si>
-  <si>
-    <t>コンフリクトが発生した</t>
-  </si>
-  <si>
-    <r>
-      <t>該当ファイルを開き、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> で区切られた箇所を手動で修正する</t>
-    </r>
-  </si>
-  <si>
-    <t>最新の内容を取得したい</t>
-  </si>
-  <si>
-    <r>
-      <t>git pull origin main</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> を実行する</t>
-    </r>
-  </si>
-  <si>
-    <t>現在の状況を確認したい</t>
-  </si>
-  <si>
-    <r>
-      <t>git status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> を実行する</t>
-    </r>
-  </si>
-  <si>
-    <t>9. まとめ</t>
-  </si>
-  <si>
-    <t>Gitは、ファイルの変更履歴を安全かつ効率的に管理するためのツールである。</t>
-  </si>
-  <si>
-    <t>GitHubは、Gitで管理したデータを共有・納品するためのクラウドサービスである。</t>
-  </si>
-  <si>
-    <t>コマンドの流れ（add → commit → push）を理解することで、設計書や資料の管理・納品を正確に行うことができる。</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">チーム開発においては、作業前後の </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>pull</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> と </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>push</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> を徹底し、他のメンバーとの変更競合を防ぐことが重要である。</t>
     </r>
   </si>
   <si>
@@ -1237,6 +1087,266 @@
     <rPh sb="36" eb="37">
       <t xml:space="preserve">メイ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>GitHubは、システム開発における成果物（設計書・資料・ソースコードなど）の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>変更履歴を一元的に管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>するために使用している。</t>
+    </r>
+  </si>
+  <si>
+    <t>特に、以下の観点で「いつ・どの業務で・どのファイルに・どのような変更が入ったか」を明確にすることができる。</t>
+  </si>
+  <si>
+    <t>1. いつ：変更の日時を把握できる</t>
+  </si>
+  <si>
+    <t>GitHub上では、各変更（コミット）に**タイムスタンプ（日時情報）**が自動的に記録される。</t>
+  </si>
+  <si>
+    <r>
+      <t>各ファイルの履歴を確認することで、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>いつ誰が変更したのか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を簡単に確認できる。</t>
+    </r>
+  </si>
+  <si>
+    <t>確認方法：</t>
+  </si>
+  <si>
+    <t>対象リポジトリにアクセスする。</t>
+  </si>
+  <si>
+    <t>対象ファイルを開く。</t>
+  </si>
+  <si>
+    <t>画面上部の「History（履歴）」をクリックする。</t>
+  </si>
+  <si>
+    <t>各コミットの日時が一覧で表示される。</t>
+  </si>
+  <si>
+    <t>2. どの業務で：変更の背景を確認できる</t>
+  </si>
+  <si>
+    <r>
+      <t>コミット時に入力する</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>コミットメッセージ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に、変更理由や関連する業務内容を記載することで、</t>
+    </r>
+  </si>
+  <si>
+    <t>　どの業務や修正対応に関連する変更かを明確にできる。</t>
+  </si>
+  <si>
+    <t>チケット番号や業務名（例：「#123 設計書修正（要件変更対応）」）を記載しておくと、業務との紐づけが容易である。</t>
+  </si>
+  <si>
+    <t>コミット履歴画面を開く。</t>
+  </si>
+  <si>
+    <t>各コミットメッセージを確認する。</t>
+  </si>
+  <si>
+    <t>必要に応じて、コミットメッセージ中のチケット番号から業務管理システムに遷移して詳細を確認する。</t>
+  </si>
+  <si>
+    <t>3. どのファイルに：変更対象を確認できる</t>
+  </si>
+  <si>
+    <r>
+      <t>各コミットには、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>どのファイルが追加・変更・削除されたか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が記録される。</t>
+    </r>
+  </si>
+  <si>
+    <t>差分（diff）表示により、修正箇所を視覚的に確認できる。</t>
+  </si>
+  <si>
+    <t>コミット履歴画面から任意のコミットをクリックする。</t>
+  </si>
+  <si>
+    <t>「Files changed」タブを選択する。</t>
+  </si>
+  <si>
+    <t>変更されたファイル一覧と、行単位での修正差分が表示される。</t>
+  </si>
+  <si>
+    <t>4. どのような変更が入ったか：変更内容を詳細に確認できる</t>
+  </si>
+  <si>
+    <t>差分画面では、**追加された行（緑）・削除された行（赤）**として修正内容を確認できる。</t>
+  </si>
+  <si>
+    <t>テキストベースのファイルだけでなく、WordやPowerPointなどのバイナリファイルの場合も、</t>
+  </si>
+  <si>
+    <t>　変更履歴としてファイルバージョンを追跡できる。</t>
+  </si>
+  <si>
+    <t>対象ファイルの「History」から変更履歴を開く。</t>
+  </si>
+  <si>
+    <t>各コミットをクリックして内容を確認する。</t>
+  </si>
+  <si>
+    <t>必要に応じて、過去のバージョンをダウンロードして比較することも可能である。</t>
+  </si>
+  <si>
+    <t>5. GitHub利用による管理効果</t>
+  </si>
+  <si>
+    <t>観点</t>
+  </si>
+  <si>
+    <t>効果</t>
+  </si>
+  <si>
+    <t>変更履歴の可視化</t>
+  </si>
+  <si>
+    <t>誰が・いつ・何を変更したかを明確化できる</t>
+  </si>
+  <si>
+    <t>誤修正の防止</t>
+  </si>
+  <si>
+    <t>履歴をもとに前バージョンへ戻すことができる</t>
+  </si>
+  <si>
+    <t>情報共有の効率化</t>
+  </si>
+  <si>
+    <t>チーム全員が同一リポジトリで最新情報を参照できる</t>
+  </si>
+  <si>
+    <t>納品物の信頼性向上</t>
+  </si>
+  <si>
+    <t>客先へ提出する設計書・資料の変更経緯を追跡可能にできる</t>
+  </si>
+  <si>
+    <t>6. 補足：GitHub上での基本的な確認手順まとめ</t>
+  </si>
+  <si>
+    <t>確認内容</t>
+  </si>
+  <si>
+    <t>手順</t>
+  </si>
+  <si>
+    <t>ファイルの更新日時</t>
+  </si>
+  <si>
+    <t>対象ファイルを開き、右上の「History」を確認する</t>
+  </si>
+  <si>
+    <t>更新担当者</t>
+  </si>
+  <si>
+    <t>コミット履歴の「Author（作成者）」欄を確認する</t>
+  </si>
+  <si>
+    <t>変更理由</t>
+  </si>
+  <si>
+    <t>コミットメッセージを確認する</t>
+  </si>
+  <si>
+    <t>変更内容</t>
+  </si>
+  <si>
+    <t>コミット内の「Files changed」タブで差分を確認する</t>
+  </si>
+  <si>
+    <t>GitHubを使用する目的と管理内容</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1661,12 +1771,292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49D95C7-555B-EF40-A8F6-28453291FC2C}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B2:C92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="31">
+      <c r="B2" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="24">
+      <c r="B9" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="24">
+      <c r="B27" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="24">
+      <c r="B44" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="24">
+      <c r="B60" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="24">
+      <c r="B77" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" t="s">
+        <v>229</v>
+      </c>
+      <c r="C80" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" t="s">
+        <v>231</v>
+      </c>
+      <c r="C81" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" t="s">
+        <v>233</v>
+      </c>
+      <c r="C82" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" t="s">
+        <v>235</v>
+      </c>
+      <c r="C83" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="24">
+      <c r="B86" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
+        <v>240</v>
+      </c>
+      <c r="C89" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" t="s">
+        <v>242</v>
+      </c>
+      <c r="C90" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
+        <v>244</v>
+      </c>
+      <c r="C91" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
+        <v>246</v>
+      </c>
+      <c r="C92" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A04E856-D10B-AB4C-B9A2-1A9D103F2F8C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:D124"/>
+  <dimension ref="B2:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1723,22 +2113,22 @@
     </row>
     <row r="18" spans="2:4">
       <c r="C18" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="C19" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="C20" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="C21" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="31">
@@ -1949,190 +2339,120 @@
         <v>56</v>
       </c>
     </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="81" spans="2:3">
       <c r="B81" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3">
-      <c r="B83" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="2:3" ht="31">
-      <c r="B87" s="1" t="s">
+    <row r="85" spans="2:3" ht="31">
+      <c r="B85" s="1" t="s">
         <v>59</v>
       </c>
     </row>
+    <row r="87" spans="2:3">
+      <c r="B87" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="89" spans="2:3">
-      <c r="B89" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>61</v>
+      <c r="B89" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="B90" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C90" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="B91" s="4" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C91" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C92" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" s="4" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C93" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3">
-      <c r="B94" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C94" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3">
-      <c r="B95" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C95" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="98" spans="2:3" ht="31">
-      <c r="B98" s="1" t="s">
+    <row r="96" spans="2:3" ht="31">
+      <c r="B96" s="1" t="s">
         <v>73</v>
       </c>
     </row>
+    <row r="98" spans="2:3">
+      <c r="B98" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="100" spans="2:3">
-      <c r="B100" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>75</v>
+      <c r="B100" t="s">
+        <v>78</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C101" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3">
-      <c r="B103" t="s">
-        <v>80</v>
-      </c>
-      <c r="C103" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3">
-      <c r="B104" t="s">
-        <v>82</v>
-      </c>
-      <c r="C104" s="4" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" ht="31">
-      <c r="B107" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3">
-      <c r="B109" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3">
-      <c r="B110" t="s">
-        <v>87</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3">
-      <c r="B111" t="s">
-        <v>89</v>
-      </c>
-      <c r="C111" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3">
-      <c r="B112" t="s">
-        <v>91</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3">
-      <c r="B113" t="s">
-        <v>93</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" ht="31">
-      <c r="B116" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3">
-      <c r="B118" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3">
-      <c r="B120" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3">
-      <c r="B122" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3">
-      <c r="B124" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2141,13 +2461,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640A5700-9716-8841-9AC0-FC78C98904C9}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B3:C221"/>
+  <dimension ref="B3:C218"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="H225" sqref="H225"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="I190" sqref="I190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2157,327 +2477,327 @@
   <sheetData>
     <row r="3" spans="2:2" ht="31">
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="31">
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="24">
       <c r="B13" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="5" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="24">
       <c r="B18" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="24">
       <c r="B22" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="3" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="24">
       <c r="B32" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="24">
       <c r="B40" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="2:2" ht="31">
       <c r="B48" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="24">
       <c r="B50" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="4" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="4" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="5" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="2:2" ht="31">
       <c r="B64" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="4" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="4" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="2:2" ht="31">
       <c r="B77" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="4" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="4" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="2:2" ht="31">
       <c r="B86" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="2:2" ht="31">
       <c r="B97" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="4" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="4" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" spans="2:2" ht="31">
       <c r="B109" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="4" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117" spans="2:2" ht="31">
       <c r="B117" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="4" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="4" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="2:2" ht="31">
       <c r="B131" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="2:2">
@@ -2487,37 +2807,37 @@
     </row>
     <row r="135" spans="2:2">
       <c r="B135" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="4" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="4" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="4" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="4" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="31">
       <c r="B145" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="2:2">
@@ -2527,203 +2847,203 @@
     </row>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="4" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="4" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="160" spans="2:2" ht="31">
       <c r="B160" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" s="4" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="4" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="4" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" s="4" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="175" spans="2:2" ht="31">
       <c r="B175" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="185" spans="2:2" ht="31">
       <c r="B185" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" ht="31">
+      <c r="B194" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" ht="24">
+      <c r="B210" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3">
+      <c r="B212" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="B213" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C213" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C214" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3">
+      <c r="B215" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C215" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2">
-      <c r="B189" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2">
-      <c r="B191" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2">
-      <c r="B193" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2" ht="31">
-      <c r="B197" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2">
-      <c r="B199" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2">
-      <c r="B201" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2">
-      <c r="B203" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2">
-      <c r="B205" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2">
-      <c r="B207" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="209" spans="2:3">
-      <c r="B209" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3" ht="24">
-      <c r="B213" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3">
-      <c r="B215" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="216" spans="2:3">
       <c r="B216" s="4" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="C216" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="217" spans="2:3">
       <c r="B217" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C217" t="s">
-        <v>205</v>
+        <v>72</v>
       </c>
     </row>
     <row r="218" spans="2:3">
       <c r="B218" s="4" t="s">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="C218" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="219" spans="2:3">
-      <c r="B219" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C219" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="220" spans="2:3">
-      <c r="B220" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C220" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="221" spans="2:3">
-      <c r="B221" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C221" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
